--- a/Protocolo.xlsx
+++ b/Protocolo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="321">
   <si>
     <t>Comando</t>
   </si>
@@ -735,6 +735,30 @@
     <t>3x</t>
   </si>
   <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
     <t>Autorizar ID</t>
   </si>
   <si>
@@ -750,64 +774,172 @@
     <t>Solicitud producto canasta</t>
   </si>
   <si>
+    <t>SP19</t>
+  </si>
+  <si>
+    <t>SP18</t>
+  </si>
+  <si>
+    <t>SP17</t>
+  </si>
+  <si>
+    <t>SP16</t>
+  </si>
+  <si>
+    <t>SP15</t>
+  </si>
+  <si>
+    <t>SP14</t>
+  </si>
+  <si>
+    <t>SP13</t>
+  </si>
+  <si>
+    <t>SP12</t>
+  </si>
+  <si>
+    <t>SP11</t>
+  </si>
+  <si>
+    <t>SP10</t>
+  </si>
+  <si>
+    <t>SP9</t>
+  </si>
+  <si>
+    <t>SP8</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>SP5</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
     <t>SP0</t>
   </si>
   <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SP5</t>
-  </si>
-  <si>
-    <t>SP6</t>
-  </si>
-  <si>
-    <t>SP7</t>
-  </si>
-  <si>
-    <t>SP8</t>
-  </si>
-  <si>
-    <t>SP9</t>
-  </si>
-  <si>
-    <t>SP10</t>
-  </si>
-  <si>
-    <t>SP11</t>
-  </si>
-  <si>
-    <t>SP12</t>
-  </si>
-  <si>
-    <t>SP13</t>
-  </si>
-  <si>
-    <t>SP14</t>
-  </si>
-  <si>
-    <t>SP15</t>
-  </si>
-  <si>
-    <t>SP16</t>
-  </si>
-  <si>
-    <t>SP17</t>
-  </si>
-  <si>
-    <t>SP18</t>
-  </si>
-  <si>
-    <t>SP19</t>
+    <t>Autoriza canasta</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>A/NCK</t>
+  </si>
+  <si>
+    <t>FINALIZA CANASTA</t>
+  </si>
+  <si>
+    <t>#PV</t>
+  </si>
+  <si>
+    <t>FINALIZA TRANSACCION</t>
+  </si>
+  <si>
+    <t>CONSIGNACION</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>VCO0</t>
+  </si>
+  <si>
+    <t>VCO1</t>
+  </si>
+  <si>
+    <t>VCO2</t>
+  </si>
+  <si>
+    <t>VCO3</t>
+  </si>
+  <si>
+    <t>VCO4</t>
+  </si>
+  <si>
+    <t>VCO5</t>
+  </si>
+  <si>
+    <t>VCO6</t>
+  </si>
+  <si>
+    <t>VC7</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -862,7 +994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -893,6 +1025,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -902,7 +1042,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1120,6 +1260,27 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1146,7 +1307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,8 +1524,64 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1410,49 +1627,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="3" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="35" min="33" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="55" min="51" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="57" min="56" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="67" min="58" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="80" min="71" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="82" min="81" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="93" min="83" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="95" min="94" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="97" min="96" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="105" min="98" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="107" min="106" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="110" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="3" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="38" min="13" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="109" min="40" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="110" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,53 +11486,56 @@
   </sheetPr>
   <dimension ref="A1:CO62"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.55612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="9" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.82142857142857"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="23" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.95918367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="35" min="33" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="2.69897959183673"/>
-    <col collapsed="false" hidden="false" max="55" min="51" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="57" min="56" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="68" min="58" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="80" min="71" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="82" min="81" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="93" min="85" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="94" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="46" min="40" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="55" min="51" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="57" min="56" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="67" min="58" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="75" min="71" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="83" min="76" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="92" min="84" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="94" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13185,7 +13370,7 @@
       <c r="CD12" s="8"/>
       <c r="CE12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33"/>
       <c r="B13" s="17" t="n">
         <v>73</v>
@@ -13373,54 +13558,70 @@
       <c r="BK13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="BL13" s="13" t="s">
+      <c r="BL13" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM13" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN13" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO13" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP13" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ13" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR13" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="BS13" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT13" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="BM13" s="13" t="s">
+      <c r="BU13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BN13" s="13" t="s">
+      <c r="BV13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BO13" s="13" t="s">
+      <c r="BW13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="BP13" s="13" t="s">
+      <c r="BX13" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="BQ13" s="13" t="s">
+      <c r="BY13" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BR13" s="13" t="s">
+      <c r="BZ13" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BS13" s="13" t="s">
+      <c r="CA13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="BT13" s="13" t="s">
+      <c r="CB13" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="BU13" s="13" t="s">
+      <c r="CC13" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BV13" s="13" t="s">
+      <c r="CD13" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="BW13" s="14" t="s">
+      <c r="CE13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="BX13" s="8"/>
-      <c r="BY13" s="8"/>
-      <c r="BZ13" s="8"/>
-      <c r="CA13" s="8"/>
-      <c r="CB13" s="8"/>
-      <c r="CC13" s="8"/>
-      <c r="CD13" s="8"/>
-      <c r="CE13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>15</v>
@@ -14024,7 +14225,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>6</v>
@@ -15304,7 +15505,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>6</v>
@@ -15520,7 +15721,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>38</v>
@@ -15988,47 +16189,49 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="6" t="n">
+        <v>249</v>
+      </c>
+      <c r="B38" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="55" t="n">
         <v>43</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="56" t="n">
         <v>44</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="56" t="n">
         <v>47</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
@@ -16090,82 +16293,82 @@
       <c r="B39" s="39" t="n">
         <v>26</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="59" t="n">
         <v>53</v>
       </c>
-      <c r="E39" s="13" t="n">
+      <c r="E39" s="59" t="n">
         <v>58</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="P39" s="8" t="s">
+      <c r="H39" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="I39" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="J39" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="K39" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="L39" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="U39" s="8" t="s">
+      <c r="M39" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="V39" s="8" t="s">
+      <c r="N39" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="W39" s="8" t="s">
+      <c r="O39" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="P39" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="Y39" s="8" t="s">
+      <c r="Q39" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="R39" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="S39" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="AB39" s="8" t="s">
+      <c r="T39" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="U39" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="V39" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="W39" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="X39" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y39" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z39" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA39" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB39" s="60" t="s">
         <v>8</v>
       </c>
       <c r="AC39" s="8"/>
@@ -16225,49 +16428,133 @@
       <c r="CE39" s="8"/>
       <c r="CF39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D40" s="56" t="n">
+        <v>44</v>
+      </c>
+      <c r="E40" s="56" t="n">
+        <v>47</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="L40" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="M40" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y40" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z40" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA40" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC40" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK40" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP40" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
@@ -16310,20 +16597,36 @@
       <c r="CD40" s="8"/>
       <c r="CE40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="61"/>
+      <c r="B41" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="59" t="n">
+        <v>53</v>
+      </c>
+      <c r="E41" s="59" t="n">
+        <v>58</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -16395,14 +16698,18 @@
       <c r="CD41" s="8"/>
       <c r="CE41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="65" t="s">
+        <v>292</v>
+      </c>
       <c r="B42" s="39"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -16480,38 +16787,98 @@
       <c r="CD42" s="8"/>
       <c r="CE42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="65"/>
+      <c r="B43" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="59" t="n">
+        <v>53</v>
+      </c>
+      <c r="E43" s="59" t="n">
+        <v>58</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="N43" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="O43" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="P43" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q43" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="R43" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="S43" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="T43" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="U43" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="V43" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="W43" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="X43" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y43" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z43" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA43" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB43" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE43" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
@@ -16565,15 +16932,29 @@
       <c r="CD43" s="8"/>
       <c r="CE43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="65" t="s">
+        <v>294</v>
+      </c>
       <c r="B44" s="39"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="C44" s="55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" s="56" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="56" t="n">
+        <v>47</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -16650,14 +17031,24 @@
       <c r="CD44" s="8"/>
       <c r="CE44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="65"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="C45" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="59" t="n">
+        <v>53</v>
+      </c>
+      <c r="E45" s="59" t="n">
+        <v>58</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>217</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -16735,22 +17126,38 @@
       <c r="CD45" s="8"/>
       <c r="CE45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="56" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -16820,26 +17227,54 @@
       <c r="CD46" s="8"/>
       <c r="CE46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="66"/>
+      <c r="B47" s="39" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="59" t="n">
+        <v>53</v>
+      </c>
+      <c r="E47" s="59" t="n">
+        <v>58</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="L47" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="N47" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O47" s="46" t="s">
+        <v>305</v>
+      </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
+      <c r="S47" s="68"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -18181,7 +18616,7 @@
       <c r="CE62" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -18201,6 +18636,10 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -18225,71 +18664,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="225" min="3" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="226" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="225" min="3" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="226" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>263</v>
+      <c r="A1" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>265</v>
+      <c r="A2" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>267</v>
+      <c r="A3" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
